--- a/testing/lumpedmass.xlsx
+++ b/testing/lumpedmass.xlsx
@@ -9,10 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17520"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17520" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="lumpedmass" sheetId="1" r:id="rId1"/>
+    <sheet name="framestructure" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,14 +26,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="159">
   <si>
     <t>\baseslabw</t>
   </si>
   <si>
-    <t>=</t>
-  </si>
-  <si>
     <t>\baseslabh</t>
   </si>
   <si>
@@ -186,13 +185,331 @@
   </si>
   <si>
     <t>$k_i,c_i$</t>
+  </si>
+  <si>
+    <t>0cm</t>
+  </si>
+  <si>
+    <t>1pt</t>
+  </si>
+  <si>
+    <t>0.15cm</t>
+  </si>
+  <si>
+    <t>1.5pt</t>
+  </si>
+  <si>
+    <t>0.2cm</t>
+  </si>
+  <si>
+    <t>4cm</t>
+  </si>
+  <si>
+    <t>\subfloors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">number of bays </t>
+  </si>
+  <si>
+    <t xml:space="preserve">story height </t>
+  </si>
+  <si>
+    <t xml:space="preserve">bay width </t>
+  </si>
+  <si>
+    <t xml:space="preserve">startX </t>
+  </si>
+  <si>
+    <t xml:space="preserve">startY </t>
+  </si>
+  <si>
+    <t xml:space="preserve">frame line thickness </t>
+  </si>
+  <si>
+    <t xml:space="preserve">support width </t>
+  </si>
+  <si>
+    <t xml:space="preserve">support height </t>
+  </si>
+  <si>
+    <t xml:space="preserve">support line thickness </t>
+  </si>
+  <si>
+    <t xml:space="preserve">show supports </t>
+  </si>
+  <si>
+    <t xml:space="preserve">isolator width </t>
+  </si>
+  <si>
+    <t xml:space="preserve">isolator thickness </t>
+  </si>
+  <si>
+    <t xml:space="preserve">isolator line thickness </t>
+  </si>
+  <si>
+    <t xml:space="preserve">foundation thickness </t>
+  </si>
+  <si>
+    <t xml:space="preserve">foundation side width </t>
+  </si>
+  <si>
+    <t xml:space="preserve">mass radius </t>
+  </si>
+  <si>
+    <t xml:space="preserve">show mass </t>
+  </si>
+  <si>
+    <t xml:space="preserve">dof floor </t>
+  </si>
+  <si>
+    <t xml:space="preserve">dof column </t>
+  </si>
+  <si>
+    <t xml:space="preserve">arrow length ratio </t>
+  </si>
+  <si>
+    <t xml:space="preserve">dof x rotation </t>
+  </si>
+  <si>
+    <t xml:space="preserve">dof y rotation </t>
+  </si>
+  <si>
+    <t xml:space="preserve">dof r rotation </t>
+  </si>
+  <si>
+    <t xml:space="preserve">dof offset ratio </t>
+  </si>
+  <si>
+    <t xml:space="preserve">rotation dof start angle </t>
+  </si>
+  <si>
+    <t xml:space="preserve">rotation dof end angle </t>
+  </si>
+  <si>
+    <t xml:space="preserve">show dof </t>
+  </si>
+  <si>
+    <t xml:space="preserve">show axes </t>
+  </si>
+  <si>
+    <t>subfloor number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">left soil distance </t>
+  </si>
+  <si>
+    <t xml:space="preserve">right soil distance </t>
+  </si>
+  <si>
+    <t xml:space="preserve">left soil depth </t>
+  </si>
+  <si>
+    <t xml:space="preserve">right soil depth </t>
+  </si>
+  <si>
+    <t xml:space="preserve">soil below foundation </t>
+  </si>
+  <si>
+    <t xml:space="preserve">left control distance x </t>
+  </si>
+  <si>
+    <t xml:space="preserve">left control distance y </t>
+  </si>
+  <si>
+    <t xml:space="preserve">right control distance x </t>
+  </si>
+  <si>
+    <t xml:space="preserve">right control distance y </t>
+  </si>
+  <si>
+    <t xml:space="preserve">axis seperation </t>
+  </si>
+  <si>
+    <t xml:space="preserve">x axis length </t>
+  </si>
+  <si>
+    <t xml:space="preserve">y axis length </t>
+  </si>
+  <si>
+    <t>number of storys</t>
+  </si>
+  <si>
+    <t>\storynumber</t>
+  </si>
+  <si>
+    <t>\baynumber</t>
+  </si>
+  <si>
+    <t>\storyheight</t>
+  </si>
+  <si>
+    <t>\baywidth</t>
+  </si>
+  <si>
+    <t>\startx</t>
+  </si>
+  <si>
+    <t>\starty</t>
+  </si>
+  <si>
+    <t>\framelinet</t>
+  </si>
+  <si>
+    <t>\supportwidth</t>
+  </si>
+  <si>
+    <t>\supportheight</t>
+  </si>
+  <si>
+    <t>\baselinet</t>
+  </si>
+  <si>
+    <t>\showsupports</t>
+  </si>
+  <si>
+    <t>\isolationwidth</t>
+  </si>
+  <si>
+    <t>\isolationdepth</t>
+  </si>
+  <si>
+    <t>\isolinet</t>
+  </si>
+  <si>
+    <t>\foundationdepth</t>
+  </si>
+  <si>
+    <t>\foundsidew</t>
+  </si>
+  <si>
+    <t>\massrad</t>
+  </si>
+  <si>
+    <t>\showmass</t>
+  </si>
+  <si>
+    <t>\doflocfloor</t>
+  </si>
+  <si>
+    <t>\dofloccolumn</t>
+  </si>
+  <si>
+    <t>\arrowlenratio</t>
+  </si>
+  <si>
+    <t>\dofoffsetratio</t>
+  </si>
+  <si>
+    <t>\dofxrotation</t>
+  </si>
+  <si>
+    <t>\dofyrotation</t>
+  </si>
+  <si>
+    <t>\dofrrotation</t>
+  </si>
+  <si>
+    <t>\rotdofstartangle</t>
+  </si>
+  <si>
+    <t>\rotdofendangle</t>
+  </si>
+  <si>
+    <t>\showdof</t>
+  </si>
+  <si>
+    <t>\showaxes</t>
+  </si>
+  <si>
+    <t>\leftsoildist</t>
+  </si>
+  <si>
+    <t>\rightsoildist</t>
+  </si>
+  <si>
+    <t>\leftsoildepth</t>
+  </si>
+  <si>
+    <t>\rightsoildepth</t>
+  </si>
+  <si>
+    <t>\soilbelowfound</t>
+  </si>
+  <si>
+    <t>\leftcontrolx</t>
+  </si>
+  <si>
+    <t>\leftcontroly</t>
+  </si>
+  <si>
+    <t>\rightcontrolx</t>
+  </si>
+  <si>
+    <t>\rightcontroly</t>
+  </si>
+  <si>
+    <t>\axisseperation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\showpiles </t>
+  </si>
+  <si>
+    <t xml:space="preserve">\numberofpiles </t>
+  </si>
+  <si>
+    <t xml:space="preserve">\piledepth </t>
+  </si>
+  <si>
+    <t xml:space="preserve">\pilesidespace </t>
+  </si>
+  <si>
+    <t xml:space="preserve">\pilediameter </t>
+  </si>
+  <si>
+    <t xml:space="preserve">\pilelinethickness </t>
+  </si>
+  <si>
+    <t>show piles</t>
+  </si>
+  <si>
+    <t>number of piles</t>
+  </si>
+  <si>
+    <t>pile depth</t>
+  </si>
+  <si>
+    <t>pile side space</t>
+  </si>
+  <si>
+    <t>pile diameter</t>
+  </si>
+  <si>
+    <t>pile line thickness</t>
+  </si>
+  <si>
+    <t>\showpiles</t>
+  </si>
+  <si>
+    <t>\numberofpiles</t>
+  </si>
+  <si>
+    <t>\piledepth</t>
+  </si>
+  <si>
+    <t>\pilesidespace</t>
+  </si>
+  <si>
+    <t>\pilediameter</t>
+  </si>
+  <si>
+    <t>\pilelinethickness</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -203,6 +520,18 @@
       <sz val="10"/>
       <color rgb="FF800000"/>
       <name val="Arial Unicode MS"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -225,12 +554,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -511,465 +847,1631 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:J19"/>
+  <dimension ref="A2:F19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="25.625" customWidth="1"/>
-    <col min="4" max="4" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="43.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9" style="2"/>
+    <col min="4" max="6" width="43.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" t="str">
+        <f>CONCATENATE(A2,"=",C2,",")</f>
+        <v>base slab width=0.8cm,</v>
+      </c>
+      <c r="E2" t="str">
+        <f>CONCATENATE(A2,"/.store in=", B2,",")</f>
+        <v>base slab width/.store in=\baseslabw,</v>
+      </c>
+      <c r="F2" t="str">
+        <f>CONCATENATE(B2,"=",B2,";")</f>
+        <v>\baseslabw=\baseslabw;</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F2" t="s">
+      <c r="C3" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="H2" t="str">
-        <f>CONCATENATE(A2,"=",F2,",")</f>
-        <v>base slab width=0.8cm,</v>
-      </c>
-      <c r="I2" t="str">
-        <f>CONCATENATE(A2,"/.store in=", D2,",")</f>
-        <v>base slab width/.store in=\baseslabw,</v>
-      </c>
-      <c r="J2" t="str">
-        <f>CONCATENATE(D2,"=",D2,";")</f>
-        <v>\baseslabw=\baseslabw;</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" t="s">
+      <c r="D3" t="str">
+        <f>CONCATENATE(A3,"=",C3,",")</f>
+        <v>base slab height=0.3cm,</v>
+      </c>
+      <c r="E3" t="str">
+        <f>CONCATENATE(A3,"/.store in=", B3,",")</f>
+        <v>base slab height/.store in=\baseslabh,</v>
+      </c>
+      <c r="F3" t="str">
+        <f t="shared" ref="F3:F19" si="0">CONCATENATE(B3,"=",B3,";")</f>
+        <v>\baseslabh=\baseslabh;</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="C4" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="H3" t="str">
-        <f t="shared" ref="H3:H16" si="0">CONCATENATE(A3,"=",F3,",")</f>
-        <v>base slab height=0.3cm,</v>
-      </c>
-      <c r="I3" t="str">
-        <f>CONCATENATE(A3,"/.store in=", D3,",")</f>
-        <v>base slab height/.store in=\baseslabh,</v>
-      </c>
-      <c r="J3" t="str">
-        <f t="shared" ref="J3:J16" si="1">CONCATENATE(D3,"=",D3,";")</f>
-        <v>\baseslabh=\baseslabh;</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" t="s">
+      <c r="D4" t="str">
+        <f>CONCATENATE(A4,"=",C4,",")</f>
+        <v>foundation width=1cm,</v>
+      </c>
+      <c r="E4" t="str">
+        <f>CONCATENATE(A4,"/.store in=", B4,",")</f>
+        <v>foundation width/.store in=\foundationw,</v>
+      </c>
+      <c r="F4" t="str">
+        <f t="shared" si="0"/>
+        <v>\foundationw=\foundationw;</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="C5" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="H4" t="str">
-        <f t="shared" si="0"/>
-        <v>foundation width=1cm,</v>
-      </c>
-      <c r="I4" t="str">
-        <f>CONCATENATE(A4,"/.store in=", D4,",")</f>
-        <v>foundation width/.store in=\foundationw,</v>
-      </c>
-      <c r="J4" t="str">
-        <f t="shared" si="1"/>
-        <v>\foundationw=\foundationw;</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" t="s">
+      <c r="D5" t="str">
+        <f>CONCATENATE(A5,"=",C5,",")</f>
+        <v>x axis length=0.5cm,</v>
+      </c>
+      <c r="E5" t="str">
+        <f>CONCATENATE(A5,"/.store in=", B5,",")</f>
+        <v>x axis length/.store in=\axeslenX,</v>
+      </c>
+      <c r="F5" t="str">
+        <f t="shared" si="0"/>
+        <v>\axeslenX=\axeslenX;</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E5" t="s">
-        <v>1</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="C6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" t="str">
+        <f>CONCATENATE(A6,"=",C6,",")</f>
+        <v>y axis length=0.5cm,</v>
+      </c>
+      <c r="E6" t="str">
+        <f>CONCATENATE(A6,"/.store in=", B6,",")</f>
+        <v>y axis length/.store in=\axeslenY,</v>
+      </c>
+      <c r="F6" t="str">
+        <f t="shared" si="0"/>
+        <v>\axeslenY=\axeslenY;</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="H5" t="str">
-        <f t="shared" si="0"/>
-        <v>x axis length=0.5cm,</v>
-      </c>
-      <c r="I5" t="str">
-        <f>CONCATENATE(A5,"/.store in=", D5,",")</f>
-        <v>x axis length/.store in=\axeslenX,</v>
-      </c>
-      <c r="J5" t="str">
-        <f t="shared" si="1"/>
-        <v>\axeslenX=\axeslenX;</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E6" t="s">
-        <v>1</v>
-      </c>
-      <c r="F6" t="s">
-        <v>33</v>
-      </c>
-      <c r="H6" t="str">
-        <f t="shared" si="0"/>
-        <v>y axis length=0.5cm,</v>
-      </c>
-      <c r="I6" t="str">
-        <f>CONCATENATE(A6,"/.store in=", D6,",")</f>
-        <v>y axis length/.store in=\axeslenY,</v>
-      </c>
-      <c r="J6" t="str">
-        <f t="shared" si="1"/>
-        <v>\axeslenY=\axeslenY;</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" t="s">
+      <c r="D7" t="str">
+        <f>CONCATENATE(A7,"=",C7,",")</f>
+        <v>drift distance=0.4cm,</v>
+      </c>
+      <c r="E7" t="str">
+        <f>CONCATENATE(A7,"/.store in=", B7,",")</f>
+        <v>drift distance/.store in=\driftdist,</v>
+      </c>
+      <c r="F7" t="str">
+        <f t="shared" si="0"/>
+        <v>\driftdist=\driftdist;</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="B8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E7" t="s">
-        <v>1</v>
-      </c>
-      <c r="F7" t="s">
+      <c r="C8" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" t="str">
+        <f>CONCATENATE(A8,"=",C8,",")</f>
+        <v>drift curve ratio=0.65,</v>
+      </c>
+      <c r="E8" t="str">
+        <f>CONCATENATE(A8,"/.store in=", B8,",")</f>
+        <v>drift curve ratio/.store in=\driftcurveratio,</v>
+      </c>
+      <c r="F8" t="str">
+        <f t="shared" si="0"/>
+        <v>\driftcurveratio=\driftcurveratio;</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="H7" t="str">
-        <f t="shared" si="0"/>
-        <v>drift distance=0.4cm,</v>
-      </c>
-      <c r="I7" t="str">
-        <f>CONCATENATE(A7,"/.store in=", D7,",")</f>
-        <v>drift distance/.store in=\driftdist,</v>
-      </c>
-      <c r="J7" t="str">
-        <f t="shared" si="1"/>
-        <v>\driftdist=\driftdist;</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" t="s">
-        <v>1</v>
-      </c>
-      <c r="F8" s="2" t="s">
+      <c r="D9" t="str">
+        <f>CONCATENATE(A9,"=",C9,",")</f>
+        <v>base slab drift=1.1cm,</v>
+      </c>
+      <c r="E9" t="str">
+        <f>CONCATENATE(A9,"/.store in=", B9,",")</f>
+        <v>base slab drift/.store in=\basedriftdist,</v>
+      </c>
+      <c r="F9" t="str">
+        <f t="shared" si="0"/>
+        <v>\basedriftdist=\basedriftdist;</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" t="str">
+        <f>CONCATENATE(A10,"=",C10,",")</f>
+        <v>foundation drift=2cm,</v>
+      </c>
+      <c r="E10" t="str">
+        <f>CONCATENATE(A10,"/.store in=", B10,",")</f>
+        <v>foundation drift/.store in=\foundationdrift,</v>
+      </c>
+      <c r="F10" t="str">
+        <f t="shared" si="0"/>
+        <v>\foundationdrift=\foundationdrift;</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" t="str">
+        <f>CONCATENATE(A11,"=",C11,",")</f>
+        <v>arrow tip length=3pt,</v>
+      </c>
+      <c r="E11" t="str">
+        <f>CONCATENATE(A11,"/.store in=", B11,",")</f>
+        <v>arrow tip length/.store in=\arrlen,</v>
+      </c>
+      <c r="F11" t="str">
+        <f t="shared" si="0"/>
+        <v>\arrlen=\arrlen;</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" t="str">
+        <f>CONCATENATE(A12,"=",C12,",")</f>
+        <v>arrow tip width=2pt,</v>
+      </c>
+      <c r="E12" t="str">
+        <f>CONCATENATE(A12,"/.store in=", B12,",")</f>
+        <v>arrow tip width/.store in=\arrwid,</v>
+      </c>
+      <c r="F12" t="str">
+        <f t="shared" si="0"/>
+        <v>\arrwid=\arrwid;</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="H8" t="str">
-        <f t="shared" si="0"/>
-        <v>drift curve ratio=0.65,</v>
-      </c>
-      <c r="I8" t="str">
-        <f>CONCATENATE(A8,"/.store in=", D8,",")</f>
-        <v>drift curve ratio/.store in=\driftcurveratio,</v>
-      </c>
-      <c r="J8" t="str">
-        <f t="shared" si="1"/>
-        <v>\driftcurveratio=\driftcurveratio;</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" t="s">
-        <v>1</v>
-      </c>
-      <c r="F9" t="s">
-        <v>35</v>
-      </c>
-      <c r="H9" t="str">
-        <f t="shared" si="0"/>
-        <v>base slab drift=1.1cm,</v>
-      </c>
-      <c r="I9" t="str">
-        <f>CONCATENATE(A9,"/.store in=", D9,",")</f>
-        <v>base slab drift/.store in=\basedriftdist,</v>
-      </c>
-      <c r="J9" t="str">
-        <f t="shared" si="1"/>
-        <v>\basedriftdist=\basedriftdist;</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" t="s">
-        <v>1</v>
-      </c>
-      <c r="F10" t="s">
-        <v>36</v>
-      </c>
-      <c r="H10" t="str">
-        <f t="shared" si="0"/>
-        <v>foundation drift=2cm,</v>
-      </c>
-      <c r="I10" t="str">
-        <f>CONCATENATE(A10,"/.store in=", D10,",")</f>
-        <v>foundation drift/.store in=\foundationdrift,</v>
-      </c>
-      <c r="J10" t="str">
-        <f t="shared" si="1"/>
-        <v>\foundationdrift=\foundationdrift;</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" t="s">
-        <v>1</v>
-      </c>
-      <c r="F11" t="s">
-        <v>37</v>
-      </c>
-      <c r="H11" t="str">
-        <f t="shared" si="0"/>
-        <v>arrow tip length=3pt,</v>
-      </c>
-      <c r="I11" t="str">
-        <f>CONCATENATE(A11,"/.store in=", D11,",")</f>
-        <v>arrow tip length/.store in=\arrlen,</v>
-      </c>
-      <c r="J11" t="str">
-        <f t="shared" si="1"/>
-        <v>\arrlen=\arrlen;</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12" t="s">
-        <v>1</v>
-      </c>
-      <c r="F12" t="s">
+      <c r="D13" t="str">
+        <f>CONCATENATE(A13,"=",C13,",")</f>
+        <v>story to place superstructure dof=2,</v>
+      </c>
+      <c r="E13" t="str">
+        <f>CONCATENATE(A13,"/.store in=", B13,",")</f>
+        <v>story to place superstructure dof/.store in=\doftextstory,</v>
+      </c>
+      <c r="F13" t="str">
+        <f t="shared" si="0"/>
+        <v>\doftextstory=\doftextstory;</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="H12" t="str">
-        <f t="shared" si="0"/>
-        <v>arrow tip width=2pt,</v>
-      </c>
-      <c r="I12" t="str">
-        <f>CONCATENATE(A12,"/.store in=", D12,",")</f>
-        <v>arrow tip width/.store in=\arrwid,</v>
-      </c>
-      <c r="J12" t="str">
-        <f t="shared" si="1"/>
-        <v>\arrwid=\arrwid;</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" t="s">
-        <v>1</v>
-      </c>
-      <c r="F13" s="2" t="s">
+      <c r="D14" t="str">
+        <f>CONCATENATE(A14,"=",C14,",")</f>
+        <v>text for the superstructure dof=$x_i(t)$,</v>
+      </c>
+      <c r="E14" t="str">
+        <f>CONCATENATE(A14,"/.store in=", B14,",")</f>
+        <v>text for the superstructure dof/.store in=\doftext,</v>
+      </c>
+      <c r="F14" t="str">
+        <f t="shared" si="0"/>
+        <v>\doftext=\doftext;</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" t="str">
+        <f>CONCATENATE(A15,"=",C15,",")</f>
+        <v>text for the isolation dof=$x_b(t)$,</v>
+      </c>
+      <c r="E15" t="str">
+        <f>CONCATENATE(A15,"/.store in=", B15,",")</f>
+        <v>text for the isolation dof/.store in=\isodoftext,</v>
+      </c>
+      <c r="F15" t="str">
+        <f t="shared" si="0"/>
+        <v>\isodoftext=\isodoftext;</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
         <v>43</v>
       </c>
-      <c r="H13" t="str">
-        <f t="shared" si="0"/>
-        <v>story to place superstructure dof=2,</v>
-      </c>
-      <c r="I13" t="str">
-        <f>CONCATENATE(A13,"/.store in=", D13,",")</f>
-        <v>story to place superstructure dof/.store in=\doftextstory,</v>
-      </c>
-      <c r="J13" t="str">
-        <f t="shared" si="1"/>
-        <v>\doftextstory=\doftextstory;</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" t="s">
-        <v>28</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E14" t="s">
-        <v>1</v>
-      </c>
-      <c r="F14" t="s">
-        <v>39</v>
-      </c>
-      <c r="H14" t="str">
-        <f t="shared" si="0"/>
-        <v>text for the superstructure dof=$x_i(t)$,</v>
-      </c>
-      <c r="I14" t="str">
-        <f>CONCATENATE(A14,"/.store in=", D14,",")</f>
-        <v>text for the superstructure dof/.store in=\doftext,</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="A15" t="s">
-        <v>29</v>
-      </c>
-      <c r="D15" s="1" t="s">
+      <c r="B16" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E15" t="s">
-        <v>1</v>
-      </c>
-      <c r="F15" t="s">
+      <c r="C16" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="H15" t="str">
-        <f t="shared" si="0"/>
-        <v>text for the isolation dof=$x_b(t)$,</v>
-      </c>
-      <c r="I15" t="str">
-        <f>CONCATENATE(A15,"/.store in=", D15,",")</f>
-        <v>text for the isolation dof/.store in=\isodoftext,</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="A16" t="s">
+      <c r="D16" t="str">
+        <f>CONCATENATE(A16,"=",C16,",")</f>
+        <v>text for the ground dof=$x_g(t)$,</v>
+      </c>
+      <c r="E16" t="str">
+        <f>CONCATENATE(A16,"/.store in=", B16,",")</f>
+        <v>text for the ground dof/.store in=\grounddoftext,</v>
+      </c>
+      <c r="F16" t="str">
+        <f t="shared" si="0"/>
+        <v>\grounddoftext=\grounddoftext;</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
         <v>44</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E16" t="s">
-        <v>1</v>
-      </c>
-      <c r="F16" t="s">
-        <v>41</v>
-      </c>
-      <c r="H16" t="str">
-        <f t="shared" si="0"/>
-        <v>text for the ground dof=$x_g(t)$,</v>
-      </c>
-      <c r="I16" t="str">
-        <f>CONCATENATE(A16,"/.store in=", D16,",")</f>
-        <v>text for the ground dof/.store in=\grounddoftext,</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="A17" t="s">
+      <c r="B17" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" t="str">
+        <f>CONCATENATE(A17,"=",C17,",")</f>
+        <v>text for the story mass=$m_i$,</v>
+      </c>
+      <c r="E17" t="str">
+        <f>CONCATENATE(A17,"/.store in=", B17,",")</f>
+        <v>text for the story mass/.store in=\storymasstext,</v>
+      </c>
+      <c r="F17" t="str">
+        <f t="shared" si="0"/>
+        <v>\storymasstext=\storymasstext;</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" t="s">
+        <v>47</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E17" t="s">
-        <v>1</v>
-      </c>
-      <c r="F17" t="s">
+      <c r="C18" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="H17" t="str">
-        <f t="shared" ref="H17:H19" si="2">CONCATENATE(A17,"=",F17,",")</f>
-        <v>text for the story mass=$m_i$,</v>
-      </c>
-      <c r="I17" t="str">
-        <f t="shared" ref="I17:I19" si="3">CONCATENATE(A17,"/.store in=", D17,",")</f>
-        <v>text for the story mass/.store in=\storymasstext,</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="A18" t="s">
-        <v>48</v>
-      </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" t="str">
+        <f>CONCATENATE(A18,"=",C18,",")</f>
+        <v>text for the base slab mass=$m_b$,</v>
+      </c>
+      <c r="E18" t="str">
+        <f>CONCATENATE(A18,"/.store in=", B18,",")</f>
+        <v>text for the base slab mass/.store in=\basemasstext,</v>
+      </c>
+      <c r="F18" t="str">
+        <f t="shared" si="0"/>
+        <v>\basemasstext=\basemasstext;</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" t="s">
+        <v>51</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E18" t="s">
-        <v>1</v>
-      </c>
-      <c r="F18" t="s">
-        <v>47</v>
-      </c>
-      <c r="H18" t="str">
-        <f t="shared" si="2"/>
-        <v>text for the base slab mass=$m_b$,</v>
-      </c>
-      <c r="I18" t="str">
-        <f t="shared" si="3"/>
-        <v>text for the base slab mass/.store in=\basemasstext,</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="A19" t="s">
+      <c r="C19" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D19" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E19" t="s">
-        <v>1</v>
-      </c>
-      <c r="F19" t="s">
-        <v>53</v>
-      </c>
-      <c r="H19" t="str">
-        <f t="shared" si="2"/>
+      <c r="D19" t="str">
+        <f>CONCATENATE(A19,"=",C19,",")</f>
         <v>text for the story properties=$k_i,c_i$,</v>
       </c>
-      <c r="I19" t="str">
-        <f t="shared" si="3"/>
+      <c r="E19" t="str">
+        <f>CONCATENATE(A19,"/.store in=", B19,",")</f>
         <v>text for the story properties/.store in=\storyproptext,</v>
+      </c>
+      <c r="F19" t="str">
+        <f t="shared" si="0"/>
+        <v>\storyproptext=\storyproptext;</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F48"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D46" sqref="D46"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75"/>
+  <cols>
+    <col min="1" max="1" width="19.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="47" style="3" customWidth="1"/>
+    <col min="6" max="6" width="37.875" style="3" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C1" s="4">
+        <v>5</v>
+      </c>
+      <c r="D1" t="str">
+        <f>CONCATENATE(A1,"=",C1,",")</f>
+        <v>number of storys=5,</v>
+      </c>
+      <c r="E1" t="str">
+        <f>CONCATENATE(A1,"/.store in=", B1,",")</f>
+        <v>number of storys/.store in=\storynumber,</v>
+      </c>
+      <c r="F1" t="str">
+        <f>CONCATENATE(B1,"=",B1,";")</f>
+        <v>\storynumber=\storynumber;</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2" s="4">
+        <v>3</v>
+      </c>
+      <c r="D2" t="str">
+        <f t="shared" ref="D2:D48" si="0">CONCATENATE(A2,"=",C2,",")</f>
+        <v>number of bays =3,</v>
+      </c>
+      <c r="E2" t="str">
+        <f t="shared" ref="E2:E48" si="1">CONCATENATE(A2,"/.store in=", B2,",")</f>
+        <v>number of bays /.store in=\baynumber,</v>
+      </c>
+      <c r="F2" t="str">
+        <f t="shared" ref="F2:F42" si="2">CONCATENATE(B2,"=",B2,";")</f>
+        <v>\baynumber=\baynumber;</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" t="str">
+        <f t="shared" si="0"/>
+        <v>story height =1cm,</v>
+      </c>
+      <c r="E3" t="str">
+        <f t="shared" si="1"/>
+        <v>story height /.store in=\storyheight,</v>
+      </c>
+      <c r="F3" t="str">
+        <f t="shared" si="2"/>
+        <v>\storyheight=\storyheight;</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" t="str">
+        <f t="shared" si="0"/>
+        <v>bay width =2cm,</v>
+      </c>
+      <c r="E4" t="str">
+        <f t="shared" si="1"/>
+        <v>bay width /.store in=\baywidth,</v>
+      </c>
+      <c r="F4" t="str">
+        <f t="shared" si="2"/>
+        <v>\baywidth=\baywidth;</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" t="str">
+        <f t="shared" si="0"/>
+        <v>startX =0cm,</v>
+      </c>
+      <c r="E5" t="str">
+        <f t="shared" si="1"/>
+        <v>startX /.store in=\startx,</v>
+      </c>
+      <c r="F5" t="str">
+        <f t="shared" si="2"/>
+        <v>\startx=\startx;</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D6" t="str">
+        <f t="shared" si="0"/>
+        <v>startY =0cm,</v>
+      </c>
+      <c r="E6" t="str">
+        <f t="shared" si="1"/>
+        <v>startY /.store in=\starty,</v>
+      </c>
+      <c r="F6" t="str">
+        <f t="shared" si="2"/>
+        <v>\starty=\starty;</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7" t="str">
+        <f t="shared" si="0"/>
+        <v>frame line thickness =1pt,</v>
+      </c>
+      <c r="E7" t="str">
+        <f t="shared" si="1"/>
+        <v>frame line thickness /.store in=\framelinet,</v>
+      </c>
+      <c r="F7" t="str">
+        <f t="shared" si="2"/>
+        <v>\framelinet=\framelinet;</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" t="str">
+        <f t="shared" si="0"/>
+        <v>support width =0.3cm,</v>
+      </c>
+      <c r="E8" t="str">
+        <f t="shared" si="1"/>
+        <v>support width /.store in=\supportwidth,</v>
+      </c>
+      <c r="F8" t="str">
+        <f t="shared" si="2"/>
+        <v>\supportwidth=\supportwidth;</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" t="str">
+        <f t="shared" si="0"/>
+        <v>support height =0.15cm,</v>
+      </c>
+      <c r="E9" t="str">
+        <f t="shared" si="1"/>
+        <v>support height /.store in=\supportheight,</v>
+      </c>
+      <c r="F9" t="str">
+        <f t="shared" si="2"/>
+        <v>\supportheight=\supportheight;</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D10" t="str">
+        <f t="shared" si="0"/>
+        <v>support line thickness =1.5pt,</v>
+      </c>
+      <c r="E10" t="str">
+        <f t="shared" si="1"/>
+        <v>support line thickness /.store in=\baselinet,</v>
+      </c>
+      <c r="F10" t="str">
+        <f t="shared" si="2"/>
+        <v>\baselinet=\baselinet;</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C11" s="4">
+        <v>1</v>
+      </c>
+      <c r="D11" t="str">
+        <f t="shared" si="0"/>
+        <v>show supports =1,</v>
+      </c>
+      <c r="E11" t="str">
+        <f t="shared" si="1"/>
+        <v>show supports /.store in=\showsupports,</v>
+      </c>
+      <c r="F11" t="str">
+        <f t="shared" si="2"/>
+        <v>\showsupports=\showsupports;</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" t="str">
+        <f t="shared" si="0"/>
+        <v>isolator width =0.3cm,</v>
+      </c>
+      <c r="E12" t="str">
+        <f t="shared" si="1"/>
+        <v>isolator width /.store in=\isolationwidth,</v>
+      </c>
+      <c r="F12" t="str">
+        <f t="shared" si="2"/>
+        <v>\isolationwidth=\isolationwidth;</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D13" t="str">
+        <f t="shared" si="0"/>
+        <v>isolator thickness =0.2cm,</v>
+      </c>
+      <c r="E13" t="str">
+        <f t="shared" si="1"/>
+        <v>isolator thickness /.store in=\isolationdepth,</v>
+      </c>
+      <c r="F13" t="str">
+        <f t="shared" si="2"/>
+        <v>\isolationdepth=\isolationdepth;</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D14" t="str">
+        <f t="shared" si="0"/>
+        <v>isolator line thickness =1.5pt,</v>
+      </c>
+      <c r="E14" t="str">
+        <f t="shared" si="1"/>
+        <v>isolator line thickness /.store in=\isolinet,</v>
+      </c>
+      <c r="F14" t="str">
+        <f t="shared" si="2"/>
+        <v>\isolinet=\isolinet;</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" t="str">
+        <f t="shared" si="0"/>
+        <v>foundation thickness =0.5cm,</v>
+      </c>
+      <c r="E15" t="str">
+        <f t="shared" si="1"/>
+        <v>foundation thickness /.store in=\foundationdepth,</v>
+      </c>
+      <c r="F15" t="str">
+        <f t="shared" si="2"/>
+        <v>\foundationdepth=\foundationdepth;</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" t="str">
+        <f t="shared" si="0"/>
+        <v>foundation side width =1cm,</v>
+      </c>
+      <c r="E16" t="str">
+        <f t="shared" si="1"/>
+        <v>foundation side width /.store in=\foundsidew,</v>
+      </c>
+      <c r="F16" t="str">
+        <f t="shared" si="2"/>
+        <v>\foundsidew=\foundsidew;</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" t="str">
+        <f t="shared" si="0"/>
+        <v>mass radius =2pt,</v>
+      </c>
+      <c r="E17" t="str">
+        <f t="shared" si="1"/>
+        <v>mass radius /.store in=\massrad,</v>
+      </c>
+      <c r="F17" t="str">
+        <f t="shared" si="2"/>
+        <v>\massrad=\massrad;</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C18" s="4">
+        <v>1</v>
+      </c>
+      <c r="D18" t="str">
+        <f t="shared" si="0"/>
+        <v>show mass =1,</v>
+      </c>
+      <c r="E18" t="str">
+        <f t="shared" si="1"/>
+        <v>show mass /.store in=\showmass,</v>
+      </c>
+      <c r="F18" t="str">
+        <f t="shared" si="2"/>
+        <v>\showmass=\showmass;</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C19" s="4">
+        <v>1</v>
+      </c>
+      <c r="D19" t="str">
+        <f t="shared" si="0"/>
+        <v>dof floor =1,</v>
+      </c>
+      <c r="E19" t="str">
+        <f t="shared" si="1"/>
+        <v>dof floor /.store in=\doflocfloor,</v>
+      </c>
+      <c r="F19" t="str">
+        <f t="shared" si="2"/>
+        <v>\doflocfloor=\doflocfloor;</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C20" s="4">
+        <v>2</v>
+      </c>
+      <c r="D20" t="str">
+        <f t="shared" si="0"/>
+        <v>dof column =2,</v>
+      </c>
+      <c r="E20" t="str">
+        <f t="shared" si="1"/>
+        <v>dof column /.store in=\dofloccolumn,</v>
+      </c>
+      <c r="F20" t="str">
+        <f t="shared" si="2"/>
+        <v>\dofloccolumn=\dofloccolumn;</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C21" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="D21" t="str">
+        <f t="shared" si="0"/>
+        <v>arrow length ratio =0.4,</v>
+      </c>
+      <c r="E21" t="str">
+        <f t="shared" si="1"/>
+        <v>arrow length ratio /.store in=\arrowlenratio,</v>
+      </c>
+      <c r="F21" t="str">
+        <f t="shared" si="2"/>
+        <v>\arrowlenratio=\arrowlenratio;</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C22" s="4">
+        <v>0</v>
+      </c>
+      <c r="D22" t="str">
+        <f t="shared" si="0"/>
+        <v>dof x rotation =0,</v>
+      </c>
+      <c r="E22" t="str">
+        <f t="shared" si="1"/>
+        <v>dof x rotation /.store in=\dofoffsetratio,</v>
+      </c>
+      <c r="F22" t="str">
+        <f t="shared" si="2"/>
+        <v>\dofoffsetratio=\dofoffsetratio;</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C23" s="4">
+        <v>0</v>
+      </c>
+      <c r="D23" t="str">
+        <f t="shared" si="0"/>
+        <v>dof y rotation =0,</v>
+      </c>
+      <c r="E23" t="str">
+        <f t="shared" si="1"/>
+        <v>dof y rotation /.store in=\dofxrotation,</v>
+      </c>
+      <c r="F23" t="str">
+        <f t="shared" si="2"/>
+        <v>\dofxrotation=\dofxrotation;</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C24" s="4">
+        <v>0</v>
+      </c>
+      <c r="D24" t="str">
+        <f t="shared" si="0"/>
+        <v>dof r rotation =0,</v>
+      </c>
+      <c r="E24" t="str">
+        <f t="shared" si="1"/>
+        <v>dof r rotation /.store in=\dofyrotation,</v>
+      </c>
+      <c r="F24" t="str">
+        <f t="shared" si="2"/>
+        <v>\dofyrotation=\dofyrotation;</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C25" s="4">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="D25" t="str">
+        <f t="shared" si="0"/>
+        <v>dof offset ratio =0.075,</v>
+      </c>
+      <c r="E25" t="str">
+        <f t="shared" si="1"/>
+        <v>dof offset ratio /.store in=\dofrrotation,</v>
+      </c>
+      <c r="F25" t="str">
+        <f t="shared" si="2"/>
+        <v>\dofrrotation=\dofrrotation;</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C26" s="4">
+        <v>120</v>
+      </c>
+      <c r="D26" t="str">
+        <f t="shared" si="0"/>
+        <v>rotation dof start angle =120,</v>
+      </c>
+      <c r="E26" t="str">
+        <f t="shared" si="1"/>
+        <v>rotation dof start angle /.store in=\rotdofstartangle,</v>
+      </c>
+      <c r="F26" t="str">
+        <f t="shared" si="2"/>
+        <v>\rotdofstartangle=\rotdofstartangle;</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C27" s="4">
+        <v>280</v>
+      </c>
+      <c r="D27" t="str">
+        <f t="shared" si="0"/>
+        <v>rotation dof end angle =280,</v>
+      </c>
+      <c r="E27" t="str">
+        <f t="shared" si="1"/>
+        <v>rotation dof end angle /.store in=\rotdofendangle,</v>
+      </c>
+      <c r="F27" t="str">
+        <f t="shared" si="2"/>
+        <v>\rotdofendangle=\rotdofendangle;</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C28" s="4">
+        <v>1</v>
+      </c>
+      <c r="D28" t="str">
+        <f t="shared" si="0"/>
+        <v>show dof =1,</v>
+      </c>
+      <c r="E28" t="str">
+        <f t="shared" si="1"/>
+        <v>show dof /.store in=\showdof,</v>
+      </c>
+      <c r="F28" t="str">
+        <f t="shared" si="2"/>
+        <v>\showdof=\showdof;</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C29" s="4">
+        <v>1</v>
+      </c>
+      <c r="D29" t="str">
+        <f t="shared" si="0"/>
+        <v>show axes =1,</v>
+      </c>
+      <c r="E29" t="str">
+        <f t="shared" si="1"/>
+        <v>show axes /.store in=\showaxes,</v>
+      </c>
+      <c r="F29" t="str">
+        <f t="shared" si="2"/>
+        <v>\showaxes=\showaxes;</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C30" s="4">
+        <v>2</v>
+      </c>
+      <c r="D30" t="str">
+        <f t="shared" si="0"/>
+        <v>subfloor number=2,</v>
+      </c>
+      <c r="E30" t="str">
+        <f t="shared" si="1"/>
+        <v>subfloor number/.store in=\subfloors,</v>
+      </c>
+      <c r="F30" t="str">
+        <f t="shared" si="2"/>
+        <v>\subfloors=\subfloors;</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D31" t="str">
+        <f t="shared" si="0"/>
+        <v>left soil distance =2cm,</v>
+      </c>
+      <c r="E31" t="str">
+        <f t="shared" si="1"/>
+        <v>left soil distance /.store in=\leftsoildist,</v>
+      </c>
+      <c r="F31" t="str">
+        <f t="shared" si="2"/>
+        <v>\leftsoildist=\leftsoildist;</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D32" t="str">
+        <f t="shared" si="0"/>
+        <v>right soil distance =4cm,</v>
+      </c>
+      <c r="E32" t="str">
+        <f t="shared" si="1"/>
+        <v>right soil distance /.store in=\rightsoildist,</v>
+      </c>
+      <c r="F32" t="str">
+        <f t="shared" si="2"/>
+        <v>\rightsoildist=\rightsoildist;</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D33" t="str">
+        <f t="shared" si="0"/>
+        <v>left soil depth =2cm,</v>
+      </c>
+      <c r="E33" t="str">
+        <f t="shared" si="1"/>
+        <v>left soil depth /.store in=\leftsoildepth,</v>
+      </c>
+      <c r="F33" t="str">
+        <f t="shared" si="2"/>
+        <v>\leftsoildepth=\leftsoildepth;</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D34" t="str">
+        <f t="shared" si="0"/>
+        <v>right soil depth =2cm,</v>
+      </c>
+      <c r="E34" t="str">
+        <f t="shared" si="1"/>
+        <v>right soil depth /.store in=\rightsoildepth,</v>
+      </c>
+      <c r="F34" t="str">
+        <f t="shared" si="2"/>
+        <v>\rightsoildepth=\rightsoildepth;</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D35" t="str">
+        <f t="shared" si="0"/>
+        <v>soil below foundation =2cm,</v>
+      </c>
+      <c r="E35" t="str">
+        <f t="shared" si="1"/>
+        <v>soil below foundation /.store in=\soilbelowfound,</v>
+      </c>
+      <c r="F35" t="str">
+        <f t="shared" si="2"/>
+        <v>\soilbelowfound=\soilbelowfound;</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D36" t="str">
+        <f t="shared" si="0"/>
+        <v>left control distance x =2cm,</v>
+      </c>
+      <c r="E36" t="str">
+        <f t="shared" si="1"/>
+        <v>left control distance x /.store in=\leftcontrolx,</v>
+      </c>
+      <c r="F36" t="str">
+        <f t="shared" si="2"/>
+        <v>\leftcontrolx=\leftcontrolx;</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D37" t="str">
+        <f t="shared" si="0"/>
+        <v>left control distance y =2cm,</v>
+      </c>
+      <c r="E37" t="str">
+        <f t="shared" si="1"/>
+        <v>left control distance y /.store in=\leftcontroly,</v>
+      </c>
+      <c r="F37" t="str">
+        <f t="shared" si="2"/>
+        <v>\leftcontroly=\leftcontroly;</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D38" t="str">
+        <f t="shared" si="0"/>
+        <v>right control distance x =2cm,</v>
+      </c>
+      <c r="E38" t="str">
+        <f t="shared" si="1"/>
+        <v>right control distance x /.store in=\rightcontrolx,</v>
+      </c>
+      <c r="F38" t="str">
+        <f t="shared" si="2"/>
+        <v>\rightcontrolx=\rightcontrolx;</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D39" t="str">
+        <f t="shared" si="0"/>
+        <v>right control distance y =2cm,</v>
+      </c>
+      <c r="E39" t="str">
+        <f t="shared" si="1"/>
+        <v>right control distance y /.store in=\rightcontroly,</v>
+      </c>
+      <c r="F39" t="str">
+        <f t="shared" si="2"/>
+        <v>\rightcontroly=\rightcontroly;</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D40" t="str">
+        <f t="shared" si="0"/>
+        <v>axis seperation =0.2cm,</v>
+      </c>
+      <c r="E40" t="str">
+        <f t="shared" si="1"/>
+        <v>axis seperation /.store in=\axisseperation,</v>
+      </c>
+      <c r="F40" t="str">
+        <f t="shared" si="2"/>
+        <v>\axisseperation=\axisseperation;</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D41" t="str">
+        <f t="shared" si="0"/>
+        <v>x axis length =0.5cm,</v>
+      </c>
+      <c r="E41" t="str">
+        <f t="shared" si="1"/>
+        <v>x axis length /.store in=\axeslenX,</v>
+      </c>
+      <c r="F41" t="str">
+        <f t="shared" si="2"/>
+        <v>\axeslenX=\axeslenX;</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D42" t="str">
+        <f t="shared" si="0"/>
+        <v>y axis length =0.5cm,</v>
+      </c>
+      <c r="E42" t="str">
+        <f t="shared" si="1"/>
+        <v>y axis length /.store in=\axeslenY,</v>
+      </c>
+      <c r="F42" t="str">
+        <f t="shared" si="2"/>
+        <v>\axeslenY=\axeslenY;</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="B43" t="s">
+        <v>153</v>
+      </c>
+      <c r="C43" s="2">
+        <v>1</v>
+      </c>
+      <c r="D43" t="str">
+        <f t="shared" ref="D43:D48" si="3">CONCATENATE(A43,"=",C43,",")</f>
+        <v>show piles=1,</v>
+      </c>
+      <c r="E43" t="str">
+        <f t="shared" ref="E43:E48" si="4">CONCATENATE(A43,"/.store in=", B43,",")</f>
+        <v>show piles/.store in=\showpiles,</v>
+      </c>
+      <c r="F43" t="str">
+        <f t="shared" ref="F43:F48" si="5">CONCATENATE(B43,"=",B43,";")</f>
+        <v>\showpiles=\showpiles;</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="B44" t="s">
+        <v>154</v>
+      </c>
+      <c r="C44" s="2">
+        <v>5</v>
+      </c>
+      <c r="D44" t="str">
+        <f t="shared" si="3"/>
+        <v>number of piles=5,</v>
+      </c>
+      <c r="E44" t="str">
+        <f t="shared" si="4"/>
+        <v>number of piles/.store in=\numberofpiles,</v>
+      </c>
+      <c r="F44" t="str">
+        <f t="shared" si="5"/>
+        <v>\numberofpiles=\numberofpiles;</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="B45" t="s">
+        <v>155</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D45" t="str">
+        <f t="shared" si="3"/>
+        <v>pile depth=4cm,</v>
+      </c>
+      <c r="E45" t="str">
+        <f t="shared" si="4"/>
+        <v>pile depth/.store in=\piledepth,</v>
+      </c>
+      <c r="F45" t="str">
+        <f t="shared" si="5"/>
+        <v>\piledepth=\piledepth;</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="B46" t="s">
+        <v>156</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D46" t="str">
+        <f t="shared" si="3"/>
+        <v>pile side space=0.5cm,</v>
+      </c>
+      <c r="E46" t="str">
+        <f t="shared" si="4"/>
+        <v>pile side space/.store in=\pilesidespace,</v>
+      </c>
+      <c r="F46" t="str">
+        <f t="shared" si="5"/>
+        <v>\pilesidespace=\pilesidespace;</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="B47" t="s">
+        <v>157</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D47" t="str">
+        <f t="shared" si="3"/>
+        <v>pile diameter=0.5cm,</v>
+      </c>
+      <c r="E47" t="str">
+        <f t="shared" si="4"/>
+        <v>pile diameter/.store in=\pilediameter,</v>
+      </c>
+      <c r="F47" t="str">
+        <f t="shared" si="5"/>
+        <v>\pilediameter=\pilediameter;</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="B48" t="s">
+        <v>158</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D48" t="str">
+        <f t="shared" si="3"/>
+        <v>pile line thickness=1pt,</v>
+      </c>
+      <c r="E48" t="str">
+        <f t="shared" si="4"/>
+        <v>pile line thickness/.store in=\pilelinethickness,</v>
+      </c>
+      <c r="F48" t="str">
+        <f t="shared" si="5"/>
+        <v>\pilelinethickness=\pilelinethickness;</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75"/>
+  <cols>
+    <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B1" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B2" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>144</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>145</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>146</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/testing/lumpedmass.xlsx
+++ b/testing/lumpedmass.xlsx
@@ -9,12 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17520" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17520" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="lumpedmass" sheetId="1" r:id="rId1"/>
     <sheet name="framestructure" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet5" sheetId="5" r:id="rId3"/>
+    <sheet name="pilesupport" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="164">
   <si>
     <t>\baseslabw</t>
   </si>
@@ -451,24 +451,6 @@
     <t>\axisseperation</t>
   </si>
   <si>
-    <t xml:space="preserve">\showpiles </t>
-  </si>
-  <si>
-    <t xml:space="preserve">\numberofpiles </t>
-  </si>
-  <si>
-    <t xml:space="preserve">\piledepth </t>
-  </si>
-  <si>
-    <t xml:space="preserve">\pilesidespace </t>
-  </si>
-  <si>
-    <t xml:space="preserve">\pilediameter </t>
-  </si>
-  <si>
-    <t xml:space="preserve">\pilelinethickness </t>
-  </si>
-  <si>
     <t>show piles</t>
   </si>
   <si>
@@ -503,6 +485,39 @@
   </si>
   <si>
     <t>\pilelinethickness</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
+  </si>
+  <si>
+    <t>\coordinatex</t>
+  </si>
+  <si>
+    <t>\coordinatey</t>
+  </si>
+  <si>
+    <t>\pdepth</t>
+  </si>
+  <si>
+    <t>\pdiameter</t>
+  </si>
+  <si>
+    <t>\plinethick</t>
+  </si>
+  <si>
+    <t>x coordinate</t>
+  </si>
+  <si>
+    <t>y coordinate</t>
+  </si>
+  <si>
+    <t>fill color</t>
+  </si>
+  <si>
+    <t>\fillcolor</t>
+  </si>
+  <si>
+    <t>gray</t>
   </si>
 </sst>
 </file>
@@ -872,11 +887,11 @@
         <v>29</v>
       </c>
       <c r="D2" t="str">
-        <f>CONCATENATE(A2,"=",C2,",")</f>
+        <f t="shared" ref="D2:D19" si="0">CONCATENATE(A2,"=",C2,",")</f>
         <v>base slab width=0.8cm,</v>
       </c>
       <c r="E2" t="str">
-        <f>CONCATENATE(A2,"/.store in=", B2,",")</f>
+        <f t="shared" ref="E2:E19" si="1">CONCATENATE(A2,"/.store in=", B2,",")</f>
         <v>base slab width/.store in=\baseslabw,</v>
       </c>
       <c r="F2" t="str">
@@ -895,15 +910,15 @@
         <v>30</v>
       </c>
       <c r="D3" t="str">
-        <f>CONCATENATE(A3,"=",C3,",")</f>
+        <f t="shared" si="0"/>
         <v>base slab height=0.3cm,</v>
       </c>
       <c r="E3" t="str">
-        <f>CONCATENATE(A3,"/.store in=", B3,",")</f>
+        <f t="shared" si="1"/>
         <v>base slab height/.store in=\baseslabh,</v>
       </c>
       <c r="F3" t="str">
-        <f t="shared" ref="F3:F19" si="0">CONCATENATE(B3,"=",B3,";")</f>
+        <f t="shared" ref="F3:F19" si="2">CONCATENATE(B3,"=",B3,";")</f>
         <v>\baseslabh=\baseslabh;</v>
       </c>
     </row>
@@ -918,15 +933,15 @@
         <v>31</v>
       </c>
       <c r="D4" t="str">
-        <f>CONCATENATE(A4,"=",C4,",")</f>
+        <f t="shared" si="0"/>
         <v>foundation width=1cm,</v>
       </c>
       <c r="E4" t="str">
-        <f>CONCATENATE(A4,"/.store in=", B4,",")</f>
+        <f t="shared" si="1"/>
         <v>foundation width/.store in=\foundationw,</v>
       </c>
       <c r="F4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>\foundationw=\foundationw;</v>
       </c>
     </row>
@@ -941,15 +956,15 @@
         <v>32</v>
       </c>
       <c r="D5" t="str">
-        <f>CONCATENATE(A5,"=",C5,",")</f>
+        <f t="shared" si="0"/>
         <v>x axis length=0.5cm,</v>
       </c>
       <c r="E5" t="str">
-        <f>CONCATENATE(A5,"/.store in=", B5,",")</f>
+        <f t="shared" si="1"/>
         <v>x axis length/.store in=\axeslenX,</v>
       </c>
       <c r="F5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>\axeslenX=\axeslenX;</v>
       </c>
     </row>
@@ -964,15 +979,15 @@
         <v>32</v>
       </c>
       <c r="D6" t="str">
-        <f>CONCATENATE(A6,"=",C6,",")</f>
+        <f t="shared" si="0"/>
         <v>y axis length=0.5cm,</v>
       </c>
       <c r="E6" t="str">
-        <f>CONCATENATE(A6,"/.store in=", B6,",")</f>
+        <f t="shared" si="1"/>
         <v>y axis length/.store in=\axeslenY,</v>
       </c>
       <c r="F6" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>\axeslenY=\axeslenY;</v>
       </c>
     </row>
@@ -987,15 +1002,15 @@
         <v>33</v>
       </c>
       <c r="D7" t="str">
-        <f>CONCATENATE(A7,"=",C7,",")</f>
+        <f t="shared" si="0"/>
         <v>drift distance=0.4cm,</v>
       </c>
       <c r="E7" t="str">
-        <f>CONCATENATE(A7,"/.store in=", B7,",")</f>
+        <f t="shared" si="1"/>
         <v>drift distance/.store in=\driftdist,</v>
       </c>
       <c r="F7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>\driftdist=\driftdist;</v>
       </c>
     </row>
@@ -1010,15 +1025,15 @@
         <v>41</v>
       </c>
       <c r="D8" t="str">
-        <f>CONCATENATE(A8,"=",C8,",")</f>
+        <f t="shared" si="0"/>
         <v>drift curve ratio=0.65,</v>
       </c>
       <c r="E8" t="str">
-        <f>CONCATENATE(A8,"/.store in=", B8,",")</f>
+        <f t="shared" si="1"/>
         <v>drift curve ratio/.store in=\driftcurveratio,</v>
       </c>
       <c r="F8" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>\driftcurveratio=\driftcurveratio;</v>
       </c>
     </row>
@@ -1033,15 +1048,15 @@
         <v>34</v>
       </c>
       <c r="D9" t="str">
-        <f>CONCATENATE(A9,"=",C9,",")</f>
+        <f t="shared" si="0"/>
         <v>base slab drift=1.1cm,</v>
       </c>
       <c r="E9" t="str">
-        <f>CONCATENATE(A9,"/.store in=", B9,",")</f>
+        <f t="shared" si="1"/>
         <v>base slab drift/.store in=\basedriftdist,</v>
       </c>
       <c r="F9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>\basedriftdist=\basedriftdist;</v>
       </c>
     </row>
@@ -1056,15 +1071,15 @@
         <v>35</v>
       </c>
       <c r="D10" t="str">
-        <f>CONCATENATE(A10,"=",C10,",")</f>
+        <f t="shared" si="0"/>
         <v>foundation drift=2cm,</v>
       </c>
       <c r="E10" t="str">
-        <f>CONCATENATE(A10,"/.store in=", B10,",")</f>
+        <f t="shared" si="1"/>
         <v>foundation drift/.store in=\foundationdrift,</v>
       </c>
       <c r="F10" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>\foundationdrift=\foundationdrift;</v>
       </c>
     </row>
@@ -1079,15 +1094,15 @@
         <v>36</v>
       </c>
       <c r="D11" t="str">
-        <f>CONCATENATE(A11,"=",C11,",")</f>
+        <f t="shared" si="0"/>
         <v>arrow tip length=3pt,</v>
       </c>
       <c r="E11" t="str">
-        <f>CONCATENATE(A11,"/.store in=", B11,",")</f>
+        <f t="shared" si="1"/>
         <v>arrow tip length/.store in=\arrlen,</v>
       </c>
       <c r="F11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>\arrlen=\arrlen;</v>
       </c>
     </row>
@@ -1102,15 +1117,15 @@
         <v>37</v>
       </c>
       <c r="D12" t="str">
-        <f>CONCATENATE(A12,"=",C12,",")</f>
+        <f t="shared" si="0"/>
         <v>arrow tip width=2pt,</v>
       </c>
       <c r="E12" t="str">
-        <f>CONCATENATE(A12,"/.store in=", B12,",")</f>
+        <f t="shared" si="1"/>
         <v>arrow tip width/.store in=\arrwid,</v>
       </c>
       <c r="F12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>\arrwid=\arrwid;</v>
       </c>
     </row>
@@ -1125,15 +1140,15 @@
         <v>42</v>
       </c>
       <c r="D13" t="str">
-        <f>CONCATENATE(A13,"=",C13,",")</f>
+        <f t="shared" si="0"/>
         <v>story to place superstructure dof=2,</v>
       </c>
       <c r="E13" t="str">
-        <f>CONCATENATE(A13,"/.store in=", B13,",")</f>
+        <f t="shared" si="1"/>
         <v>story to place superstructure dof/.store in=\doftextstory,</v>
       </c>
       <c r="F13" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>\doftextstory=\doftextstory;</v>
       </c>
     </row>
@@ -1148,15 +1163,15 @@
         <v>38</v>
       </c>
       <c r="D14" t="str">
-        <f>CONCATENATE(A14,"=",C14,",")</f>
+        <f t="shared" si="0"/>
         <v>text for the superstructure dof=$x_i(t)$,</v>
       </c>
       <c r="E14" t="str">
-        <f>CONCATENATE(A14,"/.store in=", B14,",")</f>
+        <f t="shared" si="1"/>
         <v>text for the superstructure dof/.store in=\doftext,</v>
       </c>
       <c r="F14" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>\doftext=\doftext;</v>
       </c>
     </row>
@@ -1171,15 +1186,15 @@
         <v>39</v>
       </c>
       <c r="D15" t="str">
-        <f>CONCATENATE(A15,"=",C15,",")</f>
+        <f t="shared" si="0"/>
         <v>text for the isolation dof=$x_b(t)$,</v>
       </c>
       <c r="E15" t="str">
-        <f>CONCATENATE(A15,"/.store in=", B15,",")</f>
+        <f t="shared" si="1"/>
         <v>text for the isolation dof/.store in=\isodoftext,</v>
       </c>
       <c r="F15" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>\isodoftext=\isodoftext;</v>
       </c>
     </row>
@@ -1194,15 +1209,15 @@
         <v>40</v>
       </c>
       <c r="D16" t="str">
-        <f>CONCATENATE(A16,"=",C16,",")</f>
+        <f t="shared" si="0"/>
         <v>text for the ground dof=$x_g(t)$,</v>
       </c>
       <c r="E16" t="str">
-        <f>CONCATENATE(A16,"/.store in=", B16,",")</f>
+        <f t="shared" si="1"/>
         <v>text for the ground dof/.store in=\grounddoftext,</v>
       </c>
       <c r="F16" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>\grounddoftext=\grounddoftext;</v>
       </c>
     </row>
@@ -1217,15 +1232,15 @@
         <v>45</v>
       </c>
       <c r="D17" t="str">
-        <f>CONCATENATE(A17,"=",C17,",")</f>
+        <f t="shared" si="0"/>
         <v>text for the story mass=$m_i$,</v>
       </c>
       <c r="E17" t="str">
-        <f>CONCATENATE(A17,"/.store in=", B17,",")</f>
+        <f t="shared" si="1"/>
         <v>text for the story mass/.store in=\storymasstext,</v>
       </c>
       <c r="F17" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>\storymasstext=\storymasstext;</v>
       </c>
     </row>
@@ -1240,15 +1255,15 @@
         <v>46</v>
       </c>
       <c r="D18" t="str">
-        <f>CONCATENATE(A18,"=",C18,",")</f>
+        <f t="shared" si="0"/>
         <v>text for the base slab mass=$m_b$,</v>
       </c>
       <c r="E18" t="str">
-        <f>CONCATENATE(A18,"/.store in=", B18,",")</f>
+        <f t="shared" si="1"/>
         <v>text for the base slab mass/.store in=\basemasstext,</v>
       </c>
       <c r="F18" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>\basemasstext=\basemasstext;</v>
       </c>
     </row>
@@ -1263,15 +1278,15 @@
         <v>52</v>
       </c>
       <c r="D19" t="str">
-        <f>CONCATENATE(A19,"=",C19,",")</f>
+        <f t="shared" si="0"/>
         <v>text for the story properties=$k_i,c_i$,</v>
       </c>
       <c r="E19" t="str">
-        <f>CONCATENATE(A19,"/.store in=", B19,",")</f>
+        <f t="shared" si="1"/>
         <v>text for the story properties/.store in=\storyproptext,</v>
       </c>
       <c r="F19" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>\storyproptext=\storyproptext;</v>
       </c>
     </row>
@@ -1285,8 +1300,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D46" sqref="D46"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -1334,11 +1349,11 @@
         <v>3</v>
       </c>
       <c r="D2" t="str">
-        <f t="shared" ref="D2:D48" si="0">CONCATENATE(A2,"=",C2,",")</f>
+        <f t="shared" ref="D2:D42" si="0">CONCATENATE(A2,"=",C2,",")</f>
         <v>number of bays =3,</v>
       </c>
       <c r="E2" t="str">
-        <f t="shared" ref="E2:E48" si="1">CONCATENATE(A2,"/.store in=", B2,",")</f>
+        <f t="shared" ref="E2:E42" si="1">CONCATENATE(A2,"/.store in=", B2,",")</f>
         <v>number of bays /.store in=\baynumber,</v>
       </c>
       <c r="F2" t="str">
@@ -2268,10 +2283,10 @@
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="B43" t="s">
         <v>147</v>
-      </c>
-      <c r="B43" t="s">
-        <v>153</v>
       </c>
       <c r="C43" s="2">
         <v>1</v>
@@ -2291,10 +2306,10 @@
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="B44" t="s">
         <v>148</v>
-      </c>
-      <c r="B44" t="s">
-        <v>154</v>
       </c>
       <c r="C44" s="2">
         <v>5</v>
@@ -2314,10 +2329,10 @@
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="B45" t="s">
         <v>149</v>
-      </c>
-      <c r="B45" t="s">
-        <v>155</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>58</v>
@@ -2337,10 +2352,10 @@
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="B46" t="s">
         <v>150</v>
-      </c>
-      <c r="B46" t="s">
-        <v>156</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>32</v>
@@ -2360,10 +2375,10 @@
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="B47" t="s">
         <v>151</v>
-      </c>
-      <c r="B47" t="s">
-        <v>157</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>32</v>
@@ -2383,10 +2398,10 @@
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="B48" t="s">
         <v>152</v>
-      </c>
-      <c r="B48" t="s">
-        <v>158</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>54</v>
@@ -2412,66 +2427,163 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.625" customWidth="1"/>
+    <col min="3" max="3" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="26.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>141</v>
-      </c>
-      <c r="B1" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
+        <v>159</v>
+      </c>
+      <c r="B1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" t="str">
+        <f>CONCATENATE("  ",A1,"=",C1,",")</f>
+        <v xml:space="preserve">  x coordinate=0cm,</v>
+      </c>
+      <c r="E1" t="str">
+        <f>CONCATENATE("  ",A1,"/.store in=", B1,",")</f>
+        <v xml:space="preserve">  x coordinate/.store in=\coordinatex,</v>
+      </c>
+      <c r="F1" t="str">
+        <f>CONCATENATE(B1,"=",B1,";")</f>
+        <v>\coordinatex=\coordinatex;</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>142</v>
-      </c>
-      <c r="B2" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>160</v>
+      </c>
+      <c r="B2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" t="str">
+        <f t="shared" ref="D2:D6" si="0">CONCATENATE("  ",A2,"=",C2,",")</f>
+        <v xml:space="preserve">  y coordinate=0cm,</v>
+      </c>
+      <c r="E2" t="str">
+        <f t="shared" ref="E2:E6" si="1">CONCATENATE("  ",A2,"/.store in=", B2,",")</f>
+        <v xml:space="preserve">  y coordinate/.store in=\coordinatey,</v>
+      </c>
+      <c r="F2" t="str">
+        <f t="shared" ref="F2:F6" si="2">CONCATENATE(B2,"=",B2,";")</f>
+        <v>\coordinatey=\coordinatey;</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>143</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="D3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  pile depth=4cm,</v>
+      </c>
+      <c r="E3" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  pile depth/.store in=\pdepth,</v>
+      </c>
+      <c r="F3" t="str">
+        <f t="shared" si="2"/>
+        <v>\pdepth=\pdepth;</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>144</v>
-      </c>
-      <c r="B4" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
+      <c r="D4" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  pile diameter=0.5cm,</v>
+      </c>
+      <c r="E4" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  pile diameter/.store in=\pdiameter,</v>
+      </c>
+      <c r="F4" t="str">
+        <f t="shared" si="2"/>
+        <v>\pdiameter=\pdiameter;</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>145</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
+        <v>146</v>
+      </c>
+      <c r="B5" t="s">
+        <v>158</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D5" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  pile line thickness=1pt,</v>
+      </c>
+      <c r="E5" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  pile line thickness/.store in=\plinethick,</v>
+      </c>
+      <c r="F5" t="str">
+        <f t="shared" si="2"/>
+        <v>\plinethick=\plinethick;</v>
+      </c>
+      <c r="G5" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>146</v>
+        <v>161</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>54</v>
+        <v>162</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D6" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  fill color=gray,</v>
+      </c>
+      <c r="E6" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  fill color/.store in=\fillcolor,</v>
+      </c>
+      <c r="F6" t="str">
+        <f t="shared" si="2"/>
+        <v>\fillcolor=\fillcolor;</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>